--- a/FCA Comparison.xlsx
+++ b/FCA Comparison.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dropbox\Dropbox\Connected Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Connected Stocks\Connected-Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971FB9E-B43C-4AFB-B6E3-F0886DED6C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FBC62C-F9D3-4322-AC33-4D865835BC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{219ECEC4-BE42-4FA9-BA87-1CDC2DAE881A}"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{219ECEC4-BE42-4FA9-BA87-1CDC2DAE881A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +132,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +145,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,10 +396,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -490,6 +507,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,9 +519,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7154,8 +7178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8A97A9-D6D0-4E76-ADED-A97BB2576E98}">
   <dimension ref="A9:AM182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7212,7 +7236,7 @@
       </c>
     </row>
     <row r="10" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7331,7 +7355,7 @@
       </c>
     </row>
     <row r="11" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
@@ -7460,7 +7484,7 @@
       </c>
     </row>
     <row r="12" spans="3:39" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -7591,7 +7615,7 @@
       </c>
     </row>
     <row r="13" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
@@ -9380,7 +9404,7 @@
     </row>
     <row r="40" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -9397,7 +9421,7 @@
         <f>(F41*$B$45)^2</f>
         <v>10000</v>
       </c>
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="38" t="s">
         <v>8</v>
       </c>
       <c r="J41" s="9" t="s">
@@ -9486,7 +9510,7 @@
       </c>
     </row>
     <row r="42" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D42" s="38"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="10" t="s">
         <v>3</v>
       </c>
@@ -9501,7 +9525,7 @@
         <f>(F42*$B$46)^2</f>
         <v>2500</v>
       </c>
-      <c r="I42" s="38"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="10" t="s">
         <v>3</v>
       </c>
@@ -9588,7 +9612,7 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -9605,7 +9629,7 @@
         <f>(F43*$B$45)^2</f>
         <v>10000</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="38" t="s">
         <v>9</v>
       </c>
       <c r="J43" s="9" t="s">
@@ -9694,7 +9718,7 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D44" s="38"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
@@ -9709,7 +9733,7 @@
         <f>(F44*$B$46)^2</f>
         <v>2500</v>
       </c>
-      <c r="I44" s="38"/>
+      <c r="I44" s="39"/>
       <c r="J44" s="10" t="s">
         <v>5</v>
       </c>
@@ -10076,22 +10100,22 @@
       <c r="AG48" s="29"/>
     </row>
     <row r="52" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="G52" s="36" t="s">
+      <c r="G52" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="35" t="s">
+      <c r="H52" s="37"/>
+      <c r="I52" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35" t="s">
+      <c r="J52" s="36"/>
+      <c r="K52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="35"/>
-      <c r="M52" s="36" t="s">
+      <c r="L52" s="36"/>
+      <c r="M52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="36"/>
+      <c r="N52" s="37"/>
     </row>
     <row r="53" spans="6:14" x14ac:dyDescent="0.3">
       <c r="G53" s="1" t="str">
@@ -10521,8 +10545,8 @@
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="5:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E69" s="9" t="s">
@@ -10817,18 +10841,18 @@
       <c r="P76" s="30"/>
     </row>
     <row r="80" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E80" s="35" t="s">
+      <c r="E80" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35" t="s">
+      <c r="F80" s="36"/>
+      <c r="G80" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35" t="s">
+      <c r="H80" s="36"/>
+      <c r="I80" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J80" s="35"/>
+      <c r="J80" s="36"/>
     </row>
     <row r="81" spans="4:32" x14ac:dyDescent="0.3">
       <c r="E81" s="30" t="str">
@@ -11577,52 +11601,184 @@
         <v>0.40645161290322585</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D113" s="34"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D114" s="34"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D115" s="34"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D116" s="34"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D117" s="34"/>
-    </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D118" s="34"/>
-    </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D119" s="34"/>
-    </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D120" s="34"/>
-    </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D121" s="34"/>
-    </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D122" s="34"/>
-    </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D123" s="34"/>
-    </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D124" s="34"/>
-    </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D125" s="34"/>
-    </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D126" s="34"/>
-    </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D127" s="34"/>
-    </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D116" s="34">
+        <f>D83</f>
+        <v>1</v>
+      </c>
+      <c r="E116" s="40">
+        <f>(G83-E83)/E83</f>
+        <v>6.4730632772871277E-2</v>
+      </c>
+      <c r="F116" s="40">
+        <f>(H83-F83)/F83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D117" s="35">
+        <f t="shared" ref="D117:D127" si="21">D84</f>
+        <v>2</v>
+      </c>
+      <c r="E117" s="40">
+        <f t="shared" ref="E117:F117" si="22">(G84-E84)/E84</f>
+        <v>0.11357150227499221</v>
+      </c>
+      <c r="F117" s="40">
+        <f t="shared" si="22"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D118" s="35">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="E118" s="40">
+        <f t="shared" ref="E118:F118" si="23">(G85-E85)/E85</f>
+        <v>0.14424335068224864</v>
+      </c>
+      <c r="F118" s="40">
+        <f t="shared" si="23"/>
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D119" s="35">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="E119" s="40">
+        <f t="shared" ref="E119:F119" si="24">(G86-E86)/E86</f>
+        <v>0.16657196186947965</v>
+      </c>
+      <c r="F119" s="40">
+        <f t="shared" si="24"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D120" s="35">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="E120" s="40">
+        <f t="shared" ref="E120:F120" si="25">(G87-E87)/E87</f>
+        <v>0.18405198452883817</v>
+      </c>
+      <c r="F120" s="40">
+        <f t="shared" si="25"/>
+        <v>0.22222222222222218</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D121" s="35">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="E121" s="40">
+        <f t="shared" ref="E121:F121" si="26">(G88-E88)/E88</f>
+        <v>0.19835444627979368</v>
+      </c>
+      <c r="F121" s="40">
+        <f t="shared" si="26"/>
+        <v>0.24999999999999986</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D122" s="35">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="E122" s="40">
+        <f t="shared" ref="E122:F122" si="27">(G89-E89)/E89</f>
+        <v>0.2104132560469951</v>
+      </c>
+      <c r="F122" s="40">
+        <f t="shared" si="27"/>
+        <v>0.27272727272727254</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D123" s="35">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="E123" s="40">
+        <f t="shared" ref="E123:F123" si="28">(G90-E90)/E90</f>
+        <v>0.22080454930862367</v>
+      </c>
+      <c r="F123" s="40">
+        <f t="shared" si="28"/>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D124" s="35">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="E124" s="40">
+        <f t="shared" ref="E124:F124" si="29">(G91-E91)/E91</f>
+        <v>0.22990908339470084</v>
+      </c>
+      <c r="F124" s="40">
+        <f t="shared" si="29"/>
+        <v>0.30769230769230776</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D125" s="35">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="E125" s="40">
+        <f t="shared" ref="E125:F125" si="30">(G92-E92)/E92</f>
+        <v>0.23799166099884589</v>
+      </c>
+      <c r="F125" s="40">
+        <f t="shared" si="30"/>
+        <v>0.32142857142857134</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D126" s="35">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="E126" s="40">
+        <f t="shared" ref="E126:F126" si="31">(G93-E93)/E93</f>
+        <v>0.24524384687900036</v>
+      </c>
+      <c r="F126" s="40">
+        <f t="shared" si="31"/>
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D127" s="35">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="E127" s="40">
+        <f t="shared" ref="E127:F127" si="32">(G94-E94)/E94</f>
+        <v>0.25180865003864894</v>
+      </c>
+      <c r="F127" s="40">
+        <f t="shared" si="32"/>
+        <v>0.34375000000000011</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D128" s="34"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.3">
@@ -11789,6 +11945,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="C10:C11"/>
@@ -11797,12 +11959,6 @@
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="I41:I42"/>
     <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11832,7 +11988,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="str">
+      <c r="A5" s="36" t="str">
         <f>Sheet1!C10</f>
         <v>Holder_1</v>
       </c>
@@ -11870,7 +12026,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="1" t="str">
         <f>Sheet1!D11</f>
         <v>y1</v>
@@ -11905,7 +12061,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="str">
+      <c r="A7" s="36" t="str">
         <f>Sheet1!C12</f>
         <v>Holder_2</v>
       </c>
@@ -11943,7 +12099,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="1" t="str">
         <f>Sheet1!D13</f>
         <v>y2</v>
@@ -12111,7 +12267,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="str">
+      <c r="A14" s="36" t="str">
         <f>Sheet1!C20</f>
         <v>Holder_1</v>
       </c>
@@ -12149,7 +12305,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="str">
         <f>Sheet1!D21</f>
         <v>y1</v>
@@ -12184,7 +12340,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="str">
+      <c r="A16" s="36" t="str">
         <f>Sheet1!C22</f>
         <v>Holder_2</v>
       </c>
@@ -12222,7 +12378,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1" t="str">
         <f>Sheet1!D23</f>
         <v>y2</v>
@@ -12257,7 +12413,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="str">
+      <c r="A18" s="36" t="str">
         <f>Sheet1!C24</f>
         <v>Holder_3</v>
       </c>
@@ -12295,7 +12451,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="1" t="str">
         <f>Sheet1!D25</f>
         <v>y3</v>
@@ -12510,18 +12666,18 @@
     </row>
     <row r="33" spans="2:19" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="31"/>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35" t="s">
+      <c r="F33" s="36"/>
+      <c r="G33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B34" s="32">
